--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -7050,17 +7050,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3101010007</t>
+          <t>3203050027</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
+          <t>SACO MARMOLINA BLANCA 20KG</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>18I26</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -7070,43 +7070,43 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>50.83</v>
+        <v>22.45</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>32.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>6.18</v>
+        <v>3.79</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="P14" s="4" t="n">
         <v>13</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>258</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -7141,17 +7141,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050027</t>
+          <t>3101010007</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA BLANCA 20KG</t>
+          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>18I26</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -7161,43 +7161,43 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>22.45</v>
+        <v>50.83</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>32.66</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>3.79</v>
+        <v>6.18</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11.4</v>
+        <v>38.9</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -8525,17 +8525,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>6I12</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8566,7 +8566,7 @@
         <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
@@ -8578,10 +8578,10 @@
         <v>2.3</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>59</v>
@@ -8707,17 +8707,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>6I12</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8748,7 +8748,7 @@
         <v>2.48</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
@@ -8760,10 +8760,10 @@
         <v>2.3</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>59</v>
@@ -9127,32 +9127,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -9180,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -9201,12 +9193,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -9218,17 +9210,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>12I20</t>
+          <t>1I2M3</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -9238,12 +9230,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -9271,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9292,7 +9284,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9309,12 +9301,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -9354,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -9392,24 +9384,16 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9445,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -9466,7 +9450,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -9483,24 +9467,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -9528,19 +9512,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -9549,12 +9533,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -9566,24 +9550,16 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9640,7 +9616,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -9657,16 +9633,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9723,7 +9707,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -9740,12 +9724,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG ARENA DE RIO 500L</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -9785,19 +9769,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -9806,12 +9790,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -9823,17 +9807,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1I2M3</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -9843,12 +9827,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -9876,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -9897,7 +9881,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -9914,12 +9898,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -9959,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -9980,7 +9964,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -9997,16 +9981,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10042,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -10063,7 +10055,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -10080,24 +10072,16 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO ARENA SILICE 20KG</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10133,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -10154,7 +10138,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -10171,24 +10155,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -10216,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -10237,7 +10221,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -10254,24 +10238,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -10299,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -10320,7 +10304,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -10337,24 +10321,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -10382,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -10403,7 +10387,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -10420,24 +10404,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -10465,19 +10457,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -10486,12 +10478,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -10503,12 +10495,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+          <t>BIG BAG RECEBO CESPED 500L</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -10548,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -10569,7 +10561,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -10586,17 +10578,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>12I20</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -10639,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -10660,7 +10652,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -10677,16 +10669,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -7050,17 +7050,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3203050027</t>
+          <t>3101010007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA BLANCA 20KG</t>
+          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18I26</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -7070,43 +7070,43 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>22.45</v>
+        <v>50.83</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>32.66</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>3.79</v>
+        <v>6.18</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.4</v>
+        <v>38.9</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -7141,17 +7141,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3101010007</t>
+          <t>3203050027</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
+          <t>SACO MARMOLINA BLANCA 20KG</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>18I26</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -7161,43 +7161,43 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>50.83</v>
+        <v>22.45</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>32.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>6.18</v>
+        <v>3.79</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="P15" s="4" t="n">
         <v>13</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="O15" s="4" t="n">
-        <v>258</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -9127,24 +9127,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -9193,12 +9193,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -9210,32 +9210,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -9263,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9284,7 +9276,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9301,12 +9293,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG ARENA DE RIO 500L</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -9346,19 +9338,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -9367,12 +9359,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -9384,16 +9376,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -9467,16 +9467,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9512,19 +9520,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -9533,12 +9541,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -9550,24 +9558,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -9595,19 +9603,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -9616,12 +9624,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -9633,24 +9641,16 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9686,19 +9686,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -9707,12 +9707,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -9724,12 +9724,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -9769,19 +9769,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -9790,12 +9790,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -9807,17 +9807,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>12I20</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -9898,12 +9898,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+          <t>BIG BAG RECEBO CESPED 500L</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -9981,17 +9981,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -10072,12 +10072,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -10155,24 +10155,32 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -10200,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -10221,7 +10229,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -10238,16 +10246,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10304,7 +10320,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -10321,16 +10337,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -10366,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -10387,7 +10411,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -10404,32 +10428,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -10457,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -10478,7 +10494,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -10495,24 +10511,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -10540,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -10561,7 +10577,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -10578,24 +10594,16 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>12I20</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10631,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -10652,7 +10660,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -10669,24 +10677,16 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO ARENA SILICE 20KG</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -8525,17 +8525,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>6I12</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8545,88 +8545,88 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>5.99</v>
+        <v>6.58</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>63</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>6I12</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8636,71 +8636,71 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>-2</v>
+        <v>63</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -9210,12 +9210,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+          <t>BIG BAG ARENA DE RIO 500L</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9293,12 +9293,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -9376,32 +9376,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -9429,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -9450,7 +9442,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -9467,32 +9459,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -9520,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -9541,7 +9525,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -9558,24 +9542,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -9603,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -9641,24 +9625,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -9686,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -9724,12 +9708,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -9775,13 +9759,13 @@
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -9790,12 +9774,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -9807,17 +9791,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12I20</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -9860,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -9881,7 +9865,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -9898,12 +9882,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -9943,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -9964,7 +9948,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -10072,16 +10056,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10117,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -10138,7 +10130,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -10155,17 +10147,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -10208,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -10229,7 +10221,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -10246,24 +10238,16 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10299,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -10320,12 +10304,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -10337,32 +10321,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO ARENA SILICE 20KG</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -10390,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -10411,7 +10387,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -10428,24 +10404,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA ROJA 20KG</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>12I20</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -10473,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -10494,7 +10478,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -10511,24 +10495,32 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -10556,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -10577,7 +10569,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -10594,12 +10586,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+          <t>BIG BAG RECEBO CESPED 500L</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -10639,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -10660,7 +10652,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -10677,24 +10669,32 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -8525,17 +8525,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8545,88 +8545,88 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8636,71 +8636,71 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>5.99</v>
+        <v>6.58</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>41</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
+          <t>BIG BAG ARENA DE RIO 500L</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -9210,17 +9210,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>12I20</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9301,16 +9301,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA ROJA 20KG</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>12I20</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9346,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -9367,7 +9375,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -9384,24 +9392,16 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -9475,32 +9475,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -9528,19 +9520,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -9549,12 +9541,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -9566,24 +9558,32 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -9732,12 +9732,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -9777,19 +9777,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -9798,12 +9798,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -9815,16 +9815,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9860,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -9881,7 +9889,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -9898,24 +9906,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -9943,19 +9951,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -9964,12 +9972,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -9981,32 +9989,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 500L</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -10072,12 +10072,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -10117,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -10138,12 +10138,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -10155,24 +10155,32 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -10200,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -10221,7 +10229,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -10238,24 +10246,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -10283,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -10304,7 +10312,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -10321,24 +10329,16 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10374,19 +10374,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -10395,12 +10395,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -10503,16 +10503,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10548,19 +10556,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -10569,12 +10577,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -10586,32 +10594,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -10677,24 +10677,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -7050,17 +7050,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3101010007</t>
+          <t>3203050027</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
+          <t>SACO MARMOLINA BLANCA 20KG</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>18I26</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -7070,43 +7070,43 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>50.83</v>
+        <v>22.45</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>32.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>6.18</v>
+        <v>3.79</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="P14" s="4" t="n">
         <v>13</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>258</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -7141,17 +7141,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050027</t>
+          <t>3101010007</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA BLANCA 20KG</t>
+          <t>SUSTRATO UNIVERSAL BLUMENERDE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>18I26</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -7161,43 +7161,43 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>22.45</v>
+        <v>50.83</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>32.66</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>3.79</v>
+        <v>6.18</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11.4</v>
+        <v>38.9</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -9127,24 +9127,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -9193,7 +9201,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -9210,17 +9218,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>12I20</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -9263,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9284,7 +9292,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9301,24 +9309,16 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>12I20</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9354,19 +9354,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -9375,12 +9375,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -9392,16 +9392,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9437,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -9458,7 +9466,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -9475,24 +9483,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG RECEBO CESPED 500L</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -9520,19 +9528,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -9541,12 +9549,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -9558,17 +9566,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>1I2M3</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -9578,12 +9586,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -9611,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -9632,7 +9640,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -9649,24 +9657,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -9694,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -9715,7 +9723,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -9732,12 +9740,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -9777,19 +9785,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -9798,12 +9806,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -9815,24 +9823,16 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO ARENA SILICE 20KG</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -9906,12 +9906,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -9989,12 +9989,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -10072,16 +10072,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10117,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -10138,7 +10146,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -10155,24 +10163,16 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10208,19 +10208,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -10229,12 +10229,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -10246,24 +10246,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG ARENA DE RIO 500L</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -10329,12 +10329,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -10374,19 +10374,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -10395,12 +10395,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -10412,32 +10412,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -10465,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -10486,7 +10478,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -10503,17 +10495,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -10556,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -10577,7 +10569,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -10594,12 +10586,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -10639,19 +10631,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -10660,12 +10652,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -10677,16 +10669,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -8610,17 +8610,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -8630,88 +8630,88 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="4" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T32" s="5" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -8721,71 +8721,71 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>5.99</v>
+        <v>6.58</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>41</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="5" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9121,24 +9121,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -9187,12 +9187,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -9204,24 +9204,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG RECEBO CESPED 500L</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>59</v>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -9287,24 +9287,16 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12I20</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9340,19 +9332,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -9361,12 +9353,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -9378,24 +9370,16 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9431,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
@@ -9452,7 +9436,7 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
@@ -9469,24 +9453,16 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG ARENA DE RIO 500L</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9522,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -9543,7 +9519,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -9651,12 +9627,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -9696,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
@@ -9717,7 +9693,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -9734,16 +9710,24 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9779,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
@@ -9800,7 +9784,7 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
@@ -9817,16 +9801,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
           <t>31</t>
@@ -9862,19 +9854,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -9883,12 +9875,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -9900,16 +9892,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9951,13 +9951,13 @@
         <v>59</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -9966,12 +9966,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -9983,32 +9983,24 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -10036,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
@@ -10057,7 +10049,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -10074,16 +10066,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+          <t>SACO MARMOLINA ROJA 20KG</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12I20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -10157,17 +10157,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -10248,12 +10248,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>SACO ARENA SILICE 20KG</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -10331,12 +10331,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -10376,19 +10376,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -10397,12 +10397,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -10414,12 +10414,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -10459,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -10497,32 +10497,24 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -10550,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -10571,7 +10563,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -10588,24 +10580,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -10633,19 +10625,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -10654,12 +10646,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -10671,24 +10663,32 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -9121,12 +9121,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -9187,12 +9187,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -9204,12 +9204,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>59</v>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -9287,16 +9287,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+          <t>SACO MARMOLINA ROJA 20KG</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12I20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9332,19 +9340,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -9353,12 +9361,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -9370,16 +9378,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9415,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
@@ -9436,7 +9452,7 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
@@ -9453,16 +9469,24 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9498,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -9519,7 +9543,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -9536,24 +9560,16 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9589,19 +9605,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -9610,12 +9626,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -9627,12 +9643,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -9672,19 +9688,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -9693,12 +9709,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -9710,24 +9726,16 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 500L</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -9763,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
@@ -9784,7 +9792,7 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
@@ -9801,32 +9809,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
@@ -9892,17 +9892,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -9983,24 +9983,24 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>SACO ARENA SILICE 20KG</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -10066,24 +10066,16 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>12I20</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -10119,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
@@ -10140,7 +10132,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -10157,24 +10149,16 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG ARENA DE RIO 500L</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -10210,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
@@ -10231,7 +10215,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -10248,12 +10232,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -10293,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
@@ -10314,7 +10298,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -10331,24 +10315,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -10376,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
@@ -10414,24 +10398,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -10459,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
@@ -10480,7 +10464,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -10497,24 +10481,32 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -10542,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -10563,7 +10555,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -10580,24 +10572,32 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
